--- a/src/main/resources/browserCapabilities.xlsx
+++ b/src/main/resources/browserCapabilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calvario31\Documents\Projects\Selenium\Java\CompleteFramework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820FB393-F972-496E-B49F-2EC58191A9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D19D23-F89E-4F6A-8F47-900AC9964D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{05399451-0E4E-48AE-9719-4C2F65D20250}"/>
+    <workbookView xWindow="16050" yWindow="5040" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{05399451-0E4E-48AE-9719-4C2F65D20250}"/>
   </bookViews>
   <sheets>
     <sheet name="browserCap" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>browser</t>
   </si>
   <si>
-    <t>browserVersion</t>
-  </si>
-  <si>
     <t>chrome</t>
   </si>
   <si>
@@ -55,12 +52,6 @@
     <t>Big Sur</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
     <t>firefox</t>
   </si>
   <si>
@@ -71,6 +62,12 @@
   </si>
   <si>
     <t>safari</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>os</t>
   </si>
 </sst>
 </file>
@@ -468,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33797F6B-196A-4018-B015-4E6654FB98B7}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,20 +481,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>81</v>
@@ -505,15 +502,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>14.1</v>
@@ -529,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4782C5-F541-4C5A-90CC-A886F169B534}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,15 +537,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
@@ -556,10 +553,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
